--- a/casos de uso/caso 5/caso 5.xlsx
+++ b/casos de uso/caso 5/caso 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\analise-sprint\casos de uso\caso 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369C55C7-2E5C-465F-8D0A-641C4185803B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFCBE90-6288-4FF4-BFC1-3BE7898355B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="out4_" localSheetId="0">Plan1!$A$1:$U$91</definedName>
+    <definedName name="out4_" localSheetId="0">Plan1!$A$1:$V$91</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Tipo de item</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Ajuda 1</t>
   </si>
   <si>
-    <t>Pendente</t>
-  </si>
-  <si>
     <t>Auxilio</t>
   </si>
   <si>
@@ -219,7 +216,7 @@
     <t>DSLaticinio</t>
   </si>
   <si>
-    <t>Em Andamento</t>
+    <t>HorasExtras</t>
   </si>
 </sst>
 </file>
@@ -567,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U91"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,12 +588,13 @@
     <col min="15" max="15" width="32.85546875" customWidth="1"/>
     <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="42.42578125" customWidth="1"/>
+    <col min="20" max="20" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,16 +650,19 @@
         <v>15</v>
       </c>
       <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -702,22 +703,22 @@
         <v>26</v>
       </c>
       <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
       <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2">
+        <v>42</v>
+      </c>
+      <c r="U2">
         <v>5</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -761,16 +762,16 @@
         <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3">
+        <v>43</v>
+      </c>
+      <c r="U3">
         <v>3</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -802,39 +803,39 @@
         <v>21</v>
       </c>
       <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4">
+        <v>36</v>
+      </c>
+      <c r="U4">
         <v>0</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>26004</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -855,39 +856,39 @@
         <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s">
         <v>41</v>
       </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" t="s">
-        <v>42</v>
-      </c>
       <c r="R5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5">
+        <v>40</v>
+      </c>
+      <c r="U5">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>26004</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -908,55 +909,58 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
         <v>5</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
